--- a/notion_data/CHAM_CONG_SOC_TRANG.xlsx
+++ b/notion_data/CHAM_CONG_SOC_TRANG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ14"/>
+  <dimension ref="A1:FG20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1039,6 +1039,216 @@
           <t>properties.STT.title</t>
         </is>
       </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 6.select.id</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 6.select.name</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 6.select.color</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 5.select.id</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 5.select.name</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 5.select.color</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 11.select.id</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 11.select.name</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 11.select.color</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 3.select.id</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 3.select.name</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 3.select.color</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 12.select.id</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 12.select.name</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 12.select.color</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 10.select.id</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 10.select.name</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 10.select.color</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 2.select.id</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 2.select.name</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 2.select.color</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 7.select.id</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 7.select.name</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 7.select.color</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 1.select.id</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 1.select.name</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 1.select.color</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 9.select.id</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 9.select.name</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 9.select.color</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 13.select.id</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 13.select.name</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 13.select.color</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 8.select.id</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 8.select.name</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 8.select.color</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 4.select.id</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 4.select.name</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 4.select.color</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 14.select.id</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 14.select.name</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 14.select.color</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1048,17 +1258,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>b2b3b7da-aaba-49c3-a279-2a829d314b7d</t>
+          <t>55c64dd1-6430-4fb1-a18d-9a6e393e7500</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-07-06T10:33:00.000Z</t>
+          <t>2024-07-08T16:52:00.000Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-06T10:33:00.000Z</t>
+          <t>2024-07-08T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -1071,7 +1281,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.notion.so/b2b3b7daaaba49c3a2792a829d314b7d</t>
+          <t>https://www.notion.so/55c64dd164304fb1a18d9a6e393e7500</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -1205,7 +1415,7 @@
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>[{'id': 'd8178da7-a5cc-474f-9c6e-ed3029f89c4d'}]</t>
+          <t>[{'id': 'ea0572af-f8c9-430d-9d95-23303a4ce4cd'}]</t>
         </is>
       </c>
       <c r="AR2" t="b">
@@ -1470,7 +1680,7 @@
       </c>
       <c r="DJ2" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
         </is>
       </c>
       <c r="DK2" t="inlineStr">
@@ -1504,6 +1714,48 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="DR2" t="inlineStr"/>
+      <c r="DS2" t="inlineStr"/>
+      <c r="DT2" t="inlineStr"/>
+      <c r="DU2" t="inlineStr"/>
+      <c r="DV2" t="inlineStr"/>
+      <c r="DW2" t="inlineStr"/>
+      <c r="DX2" t="inlineStr"/>
+      <c r="DY2" t="inlineStr"/>
+      <c r="DZ2" t="inlineStr"/>
+      <c r="EA2" t="inlineStr"/>
+      <c r="EB2" t="inlineStr"/>
+      <c r="EC2" t="inlineStr"/>
+      <c r="ED2" t="inlineStr"/>
+      <c r="EE2" t="inlineStr"/>
+      <c r="EF2" t="inlineStr"/>
+      <c r="EG2" t="inlineStr"/>
+      <c r="EH2" t="inlineStr"/>
+      <c r="EI2" t="inlineStr"/>
+      <c r="EJ2" t="inlineStr"/>
+      <c r="EK2" t="inlineStr"/>
+      <c r="EL2" t="inlineStr"/>
+      <c r="EM2" t="inlineStr"/>
+      <c r="EN2" t="inlineStr"/>
+      <c r="EO2" t="inlineStr"/>
+      <c r="EP2" t="inlineStr"/>
+      <c r="EQ2" t="inlineStr"/>
+      <c r="ER2" t="inlineStr"/>
+      <c r="ES2" t="inlineStr"/>
+      <c r="ET2" t="inlineStr"/>
+      <c r="EU2" t="inlineStr"/>
+      <c r="EV2" t="inlineStr"/>
+      <c r="EW2" t="inlineStr"/>
+      <c r="EX2" t="inlineStr"/>
+      <c r="EY2" t="inlineStr"/>
+      <c r="EZ2" t="inlineStr"/>
+      <c r="FA2" t="inlineStr"/>
+      <c r="FB2" t="inlineStr"/>
+      <c r="FC2" t="inlineStr"/>
+      <c r="FD2" t="inlineStr"/>
+      <c r="FE2" t="inlineStr"/>
+      <c r="FF2" t="inlineStr"/>
+      <c r="FG2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1513,17 +1765,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3ab85018-df13-41b4-80bb-c0e4bacf9b84</t>
+          <t>ac688d14-46a4-4003-b47e-ff5d1ae78d3f</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-07-02T18:03:00.000Z</t>
+          <t>2024-07-08T16:52:00.000Z</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-02T18:03:00.000Z</t>
+          <t>2024-07-08T16:52:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1536,7 +1788,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.notion.so/3ab85018df1341b480bbc0e4bacf9b84</t>
+          <t>https://www.notion.so/ac688d1446a44003b47eff5d1ae78d3f</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -1670,7 +1922,7 @@
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>[{'id': '3d301dfe-6e3d-4d28-a249-1fd5fac9abd3'}]</t>
+          <t>[{'id': 'e0ac0375-0b3a-4c88-a613-cb8df33ebe6b'}]</t>
         </is>
       </c>
       <c r="AR3" t="b">
@@ -1935,7 +2187,7 @@
       </c>
       <c r="DJ3" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'VWB;', 'name': 'SÓC TRĂNG', 'color': 'red'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
         </is>
       </c>
       <c r="DK3" t="inlineStr">
@@ -1969,6 +2221,48 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="DR3" t="inlineStr"/>
+      <c r="DS3" t="inlineStr"/>
+      <c r="DT3" t="inlineStr"/>
+      <c r="DU3" t="inlineStr"/>
+      <c r="DV3" t="inlineStr"/>
+      <c r="DW3" t="inlineStr"/>
+      <c r="DX3" t="inlineStr"/>
+      <c r="DY3" t="inlineStr"/>
+      <c r="DZ3" t="inlineStr"/>
+      <c r="EA3" t="inlineStr"/>
+      <c r="EB3" t="inlineStr"/>
+      <c r="EC3" t="inlineStr"/>
+      <c r="ED3" t="inlineStr"/>
+      <c r="EE3" t="inlineStr"/>
+      <c r="EF3" t="inlineStr"/>
+      <c r="EG3" t="inlineStr"/>
+      <c r="EH3" t="inlineStr"/>
+      <c r="EI3" t="inlineStr"/>
+      <c r="EJ3" t="inlineStr"/>
+      <c r="EK3" t="inlineStr"/>
+      <c r="EL3" t="inlineStr"/>
+      <c r="EM3" t="inlineStr"/>
+      <c r="EN3" t="inlineStr"/>
+      <c r="EO3" t="inlineStr"/>
+      <c r="EP3" t="inlineStr"/>
+      <c r="EQ3" t="inlineStr"/>
+      <c r="ER3" t="inlineStr"/>
+      <c r="ES3" t="inlineStr"/>
+      <c r="ET3" t="inlineStr"/>
+      <c r="EU3" t="inlineStr"/>
+      <c r="EV3" t="inlineStr"/>
+      <c r="EW3" t="inlineStr"/>
+      <c r="EX3" t="inlineStr"/>
+      <c r="EY3" t="inlineStr"/>
+      <c r="EZ3" t="inlineStr"/>
+      <c r="FA3" t="inlineStr"/>
+      <c r="FB3" t="inlineStr"/>
+      <c r="FC3" t="inlineStr"/>
+      <c r="FD3" t="inlineStr"/>
+      <c r="FE3" t="inlineStr"/>
+      <c r="FF3" t="inlineStr"/>
+      <c r="FG3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1978,17 +2272,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>76971ddb-a552-4fbb-a927-0ed1be0621da</t>
+          <t>d8f3e9b4-b311-4949-9c5c-eea8a6be5c26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-07-02T18:03:00.000Z</t>
+          <t>2024-07-08T16:52:00.000Z</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-02T18:03:00.000Z</t>
+          <t>2024-07-08T16:52:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -2001,7 +2295,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.notion.so/76971ddba5524fbba9270ed1be0621da</t>
+          <t>https://www.notion.so/d8f3e9b4b31149499c5ceea8a6be5c26</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -2135,7 +2429,7 @@
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>[{'id': 'e926d62c-e624-4663-9009-c562ae5166cf'}]</t>
+          <t>[{'id': 'bc9b2b6b-3140-44b9-a1be-4dc8e77d8898'}]</t>
         </is>
       </c>
       <c r="AR4" t="b">
@@ -2400,7 +2694,7 @@
       </c>
       <c r="DJ4" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
         </is>
       </c>
       <c r="DK4" t="inlineStr">
@@ -2434,6 +2728,48 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="DR4" t="inlineStr"/>
+      <c r="DS4" t="inlineStr"/>
+      <c r="DT4" t="inlineStr"/>
+      <c r="DU4" t="inlineStr"/>
+      <c r="DV4" t="inlineStr"/>
+      <c r="DW4" t="inlineStr"/>
+      <c r="DX4" t="inlineStr"/>
+      <c r="DY4" t="inlineStr"/>
+      <c r="DZ4" t="inlineStr"/>
+      <c r="EA4" t="inlineStr"/>
+      <c r="EB4" t="inlineStr"/>
+      <c r="EC4" t="inlineStr"/>
+      <c r="ED4" t="inlineStr"/>
+      <c r="EE4" t="inlineStr"/>
+      <c r="EF4" t="inlineStr"/>
+      <c r="EG4" t="inlineStr"/>
+      <c r="EH4" t="inlineStr"/>
+      <c r="EI4" t="inlineStr"/>
+      <c r="EJ4" t="inlineStr"/>
+      <c r="EK4" t="inlineStr"/>
+      <c r="EL4" t="inlineStr"/>
+      <c r="EM4" t="inlineStr"/>
+      <c r="EN4" t="inlineStr"/>
+      <c r="EO4" t="inlineStr"/>
+      <c r="EP4" t="inlineStr"/>
+      <c r="EQ4" t="inlineStr"/>
+      <c r="ER4" t="inlineStr"/>
+      <c r="ES4" t="inlineStr"/>
+      <c r="ET4" t="inlineStr"/>
+      <c r="EU4" t="inlineStr"/>
+      <c r="EV4" t="inlineStr"/>
+      <c r="EW4" t="inlineStr"/>
+      <c r="EX4" t="inlineStr"/>
+      <c r="EY4" t="inlineStr"/>
+      <c r="EZ4" t="inlineStr"/>
+      <c r="FA4" t="inlineStr"/>
+      <c r="FB4" t="inlineStr"/>
+      <c r="FC4" t="inlineStr"/>
+      <c r="FD4" t="inlineStr"/>
+      <c r="FE4" t="inlineStr"/>
+      <c r="FF4" t="inlineStr"/>
+      <c r="FG4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2443,17 +2779,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8283ffd4-4a9b-4e07-863c-f03e6e89e0fa</t>
+          <t>a59f4f48-5e46-4827-bc32-cf235c11c41a</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-07-02T18:03:00.000Z</t>
+          <t>2024-07-08T16:52:00.000Z</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-02T18:03:00.000Z</t>
+          <t>2024-07-14T13:14:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -2466,7 +2802,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.notion.so/8283ffd44a9b4e07863cf03e6e89e0fa</t>
+          <t>https://www.notion.so/a59f4f485e464827bc32cf235c11c41a</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -2487,7 +2823,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>30a14424-7f11-4ee5-a793-fece5c78e36c</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -2600,7 +2936,7 @@
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>[{'id': '3fac4a49-402c-4d34-aa91-419ebc20760c'}]</t>
+          <t>[{'id': '90bc02c2-bd1e-4c33-884a-38a1db528c78'}]</t>
         </is>
       </c>
       <c r="AR5" t="b">
@@ -2897,6 +3233,216 @@
       <c r="DQ5" t="inlineStr">
         <is>
           <t>[]</t>
+        </is>
+      </c>
+      <c r="DR5" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DS5" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DT5" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="DU5" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DV5" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DW5" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="DX5" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DY5" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DZ5" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EA5" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EB5" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EC5" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="ED5" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EE5" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EF5" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EG5" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EH5" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EI5" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EJ5" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EK5" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EL5" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EM5" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EN5" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EO5" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EP5" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EQ5" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="ER5" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="ES5" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="ET5" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EU5" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EV5" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EW5" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EX5" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EY5" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EZ5" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FA5" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FB5" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FC5" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FD5" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FE5" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FF5" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FG5" t="inlineStr">
+        <is>
+          <t>pink</t>
         </is>
       </c>
     </row>
@@ -2908,17 +3454,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>cff39a6c-a1c3-4dbd-bf53-21701351c2ed</t>
+          <t>4aa88934-1658-4a3f-ba04-0b2d122eb431</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-07-02T18:03:00.000Z</t>
+          <t>2024-07-08T16:52:00.000Z</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-02T18:03:00.000Z</t>
+          <t>2024-07-08T16:52:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -2931,7 +3477,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.notion.so/cff39a6ca1c34dbdbf5321701351c2ed</t>
+          <t>https://www.notion.so/4aa8893416584a3fba040b2d122eb431</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -3065,7 +3611,7 @@
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>[{'id': 'a73ea60d-3de1-4e9b-aa7b-f22fda5742bd'}]</t>
+          <t>[{'id': '7e29a9ca-b017-4ad6-a6b0-6ed9330137bc'}]</t>
         </is>
       </c>
       <c r="AR6" t="b">
@@ -3364,6 +3910,48 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="DR6" t="inlineStr"/>
+      <c r="DS6" t="inlineStr"/>
+      <c r="DT6" t="inlineStr"/>
+      <c r="DU6" t="inlineStr"/>
+      <c r="DV6" t="inlineStr"/>
+      <c r="DW6" t="inlineStr"/>
+      <c r="DX6" t="inlineStr"/>
+      <c r="DY6" t="inlineStr"/>
+      <c r="DZ6" t="inlineStr"/>
+      <c r="EA6" t="inlineStr"/>
+      <c r="EB6" t="inlineStr"/>
+      <c r="EC6" t="inlineStr"/>
+      <c r="ED6" t="inlineStr"/>
+      <c r="EE6" t="inlineStr"/>
+      <c r="EF6" t="inlineStr"/>
+      <c r="EG6" t="inlineStr"/>
+      <c r="EH6" t="inlineStr"/>
+      <c r="EI6" t="inlineStr"/>
+      <c r="EJ6" t="inlineStr"/>
+      <c r="EK6" t="inlineStr"/>
+      <c r="EL6" t="inlineStr"/>
+      <c r="EM6" t="inlineStr"/>
+      <c r="EN6" t="inlineStr"/>
+      <c r="EO6" t="inlineStr"/>
+      <c r="EP6" t="inlineStr"/>
+      <c r="EQ6" t="inlineStr"/>
+      <c r="ER6" t="inlineStr"/>
+      <c r="ES6" t="inlineStr"/>
+      <c r="ET6" t="inlineStr"/>
+      <c r="EU6" t="inlineStr"/>
+      <c r="EV6" t="inlineStr"/>
+      <c r="EW6" t="inlineStr"/>
+      <c r="EX6" t="inlineStr"/>
+      <c r="EY6" t="inlineStr"/>
+      <c r="EZ6" t="inlineStr"/>
+      <c r="FA6" t="inlineStr"/>
+      <c r="FB6" t="inlineStr"/>
+      <c r="FC6" t="inlineStr"/>
+      <c r="FD6" t="inlineStr"/>
+      <c r="FE6" t="inlineStr"/>
+      <c r="FF6" t="inlineStr"/>
+      <c r="FG6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3373,17 +3961,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0ea3a596-a391-4e49-9bcf-3f1a1b210bee</t>
+          <t>569198e0-9c07-4f06-bd01-1918776a0ff0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-07-02T18:03:00.000Z</t>
+          <t>2024-07-08T16:52:00.000Z</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-02T18:03:00.000Z</t>
+          <t>2024-07-08T16:52:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -3396,7 +3984,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.notion.so/0ea3a596a3914e499bcf3f1a1b210bee</t>
+          <t>https://www.notion.so/569198e09c074f06bd011918776a0ff0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -3530,7 +4118,7 @@
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>[{'id': '75046948-a198-4627-89b3-3bbf5967526b'}]</t>
+          <t>[{'id': '6454d5e5-8a20-473b-a597-dc1973dd1e0e'}]</t>
         </is>
       </c>
       <c r="AR7" t="b">
@@ -3795,7 +4383,7 @@
       </c>
       <c r="DJ7" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'VWB;', 'name': 'SÓC TRĂNG', 'color': 'red'}}]</t>
         </is>
       </c>
       <c r="DK7" t="inlineStr">
@@ -3829,6 +4417,48 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="DR7" t="inlineStr"/>
+      <c r="DS7" t="inlineStr"/>
+      <c r="DT7" t="inlineStr"/>
+      <c r="DU7" t="inlineStr"/>
+      <c r="DV7" t="inlineStr"/>
+      <c r="DW7" t="inlineStr"/>
+      <c r="DX7" t="inlineStr"/>
+      <c r="DY7" t="inlineStr"/>
+      <c r="DZ7" t="inlineStr"/>
+      <c r="EA7" t="inlineStr"/>
+      <c r="EB7" t="inlineStr"/>
+      <c r="EC7" t="inlineStr"/>
+      <c r="ED7" t="inlineStr"/>
+      <c r="EE7" t="inlineStr"/>
+      <c r="EF7" t="inlineStr"/>
+      <c r="EG7" t="inlineStr"/>
+      <c r="EH7" t="inlineStr"/>
+      <c r="EI7" t="inlineStr"/>
+      <c r="EJ7" t="inlineStr"/>
+      <c r="EK7" t="inlineStr"/>
+      <c r="EL7" t="inlineStr"/>
+      <c r="EM7" t="inlineStr"/>
+      <c r="EN7" t="inlineStr"/>
+      <c r="EO7" t="inlineStr"/>
+      <c r="EP7" t="inlineStr"/>
+      <c r="EQ7" t="inlineStr"/>
+      <c r="ER7" t="inlineStr"/>
+      <c r="ES7" t="inlineStr"/>
+      <c r="ET7" t="inlineStr"/>
+      <c r="EU7" t="inlineStr"/>
+      <c r="EV7" t="inlineStr"/>
+      <c r="EW7" t="inlineStr"/>
+      <c r="EX7" t="inlineStr"/>
+      <c r="EY7" t="inlineStr"/>
+      <c r="EZ7" t="inlineStr"/>
+      <c r="FA7" t="inlineStr"/>
+      <c r="FB7" t="inlineStr"/>
+      <c r="FC7" t="inlineStr"/>
+      <c r="FD7" t="inlineStr"/>
+      <c r="FE7" t="inlineStr"/>
+      <c r="FF7" t="inlineStr"/>
+      <c r="FG7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3838,17 +4468,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>46ce4346-5796-4086-a680-e30f35b1cf88</t>
+          <t>b2b3b7da-aaba-49c3-a279-2a829d314b7d</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-07-02T18:03:00.000Z</t>
+          <t>2024-07-06T10:33:00.000Z</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-02T18:03:00.000Z</t>
+          <t>2024-07-06T10:33:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -3861,7 +4491,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.notion.so/46ce434657964086a680e30f35b1cf88</t>
+          <t>https://www.notion.so/b2b3b7daaaba49c3a2792a829d314b7d</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -3995,7 +4625,7 @@
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>[{'id': 'b9c67786-5d99-45c1-85d7-f96bfb66ef22'}]</t>
+          <t>[{'id': 'd8178da7-a5cc-474f-9c6e-ed3029f89c4d'}]</t>
         </is>
       </c>
       <c r="AR8" t="b">
@@ -4260,7 +4890,7 @@
       </c>
       <c r="DJ8" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
         </is>
       </c>
       <c r="DK8" t="inlineStr">
@@ -4294,6 +4924,48 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="DR8" t="inlineStr"/>
+      <c r="DS8" t="inlineStr"/>
+      <c r="DT8" t="inlineStr"/>
+      <c r="DU8" t="inlineStr"/>
+      <c r="DV8" t="inlineStr"/>
+      <c r="DW8" t="inlineStr"/>
+      <c r="DX8" t="inlineStr"/>
+      <c r="DY8" t="inlineStr"/>
+      <c r="DZ8" t="inlineStr"/>
+      <c r="EA8" t="inlineStr"/>
+      <c r="EB8" t="inlineStr"/>
+      <c r="EC8" t="inlineStr"/>
+      <c r="ED8" t="inlineStr"/>
+      <c r="EE8" t="inlineStr"/>
+      <c r="EF8" t="inlineStr"/>
+      <c r="EG8" t="inlineStr"/>
+      <c r="EH8" t="inlineStr"/>
+      <c r="EI8" t="inlineStr"/>
+      <c r="EJ8" t="inlineStr"/>
+      <c r="EK8" t="inlineStr"/>
+      <c r="EL8" t="inlineStr"/>
+      <c r="EM8" t="inlineStr"/>
+      <c r="EN8" t="inlineStr"/>
+      <c r="EO8" t="inlineStr"/>
+      <c r="EP8" t="inlineStr"/>
+      <c r="EQ8" t="inlineStr"/>
+      <c r="ER8" t="inlineStr"/>
+      <c r="ES8" t="inlineStr"/>
+      <c r="ET8" t="inlineStr"/>
+      <c r="EU8" t="inlineStr"/>
+      <c r="EV8" t="inlineStr"/>
+      <c r="EW8" t="inlineStr"/>
+      <c r="EX8" t="inlineStr"/>
+      <c r="EY8" t="inlineStr"/>
+      <c r="EZ8" t="inlineStr"/>
+      <c r="FA8" t="inlineStr"/>
+      <c r="FB8" t="inlineStr"/>
+      <c r="FC8" t="inlineStr"/>
+      <c r="FD8" t="inlineStr"/>
+      <c r="FE8" t="inlineStr"/>
+      <c r="FF8" t="inlineStr"/>
+      <c r="FG8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4303,7 +4975,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9da092fb-e107-4b58-9105-22caaa25853c</t>
+          <t>3ab85018-df13-41b4-80bb-c0e4bacf9b84</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4313,7 +4985,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-02T18:03:00.000Z</t>
+          <t>2024-07-14T13:14:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -4326,7 +4998,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.notion.so/9da092fbe1074b58910522caaa25853c</t>
+          <t>https://www.notion.so/3ab85018df1341b480bbc0e4bacf9b84</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -4347,7 +5019,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>30a14424-7f11-4ee5-a793-fece5c78e36c</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -4460,7 +5132,7 @@
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>[{'id': '3601e7b0-a80d-4dfd-bfa1-0d34a0e7e389'}]</t>
+          <t>[{'id': '3d301dfe-6e3d-4d28-a249-1fd5fac9abd3'}]</t>
         </is>
       </c>
       <c r="AR9" t="b">
@@ -4725,7 +5397,7 @@
       </c>
       <c r="DJ9" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'VWB;', 'name': 'SÓC TRĂNG', 'color': 'red'}}]</t>
         </is>
       </c>
       <c r="DK9" t="inlineStr">
@@ -4757,6 +5429,216 @@
       <c r="DQ9" t="inlineStr">
         <is>
           <t>[]</t>
+        </is>
+      </c>
+      <c r="DR9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DS9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DT9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="DU9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DV9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DW9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="DX9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DY9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DZ9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EA9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EB9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EC9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="ED9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EE9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EF9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EG9" t="inlineStr">
+        <is>
+          <t>I_rY</t>
+        </is>
+      </c>
+      <c r="EH9" t="inlineStr">
+        <is>
+          <t>Nửa ngày</t>
+        </is>
+      </c>
+      <c r="EI9" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="EJ9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EK9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EL9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EM9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EN9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EO9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EP9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EQ9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="ER9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="ES9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="ET9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EU9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EV9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EW9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EX9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EY9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EZ9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FA9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FB9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FC9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FD9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FE9" t="inlineStr">
+        <is>
+          <t>IzRg</t>
+        </is>
+      </c>
+      <c r="FF9" t="inlineStr">
+        <is>
+          <t>Nửa ngày</t>
+        </is>
+      </c>
+      <c r="FG9" t="inlineStr">
+        <is>
+          <t>yellow</t>
         </is>
       </c>
     </row>
@@ -4768,7 +5650,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>bedf0744-47fa-46bd-8131-f1a5cf03b8f1</t>
+          <t>76971ddb-a552-4fbb-a927-0ed1be0621da</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4791,7 +5673,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.notion.so/bedf074447fa46bd8131f1a5cf03b8f1</t>
+          <t>https://www.notion.so/76971ddba5524fbba9270ed1be0621da</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -4925,7 +5807,7 @@
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>[{'id': '467f676f-8f46-49b5-afea-feecb0794d23'}]</t>
+          <t>[{'id': 'e926d62c-e624-4663-9009-c562ae5166cf'}]</t>
         </is>
       </c>
       <c r="AR10" t="b">
@@ -5224,6 +6106,48 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="DR10" t="inlineStr"/>
+      <c r="DS10" t="inlineStr"/>
+      <c r="DT10" t="inlineStr"/>
+      <c r="DU10" t="inlineStr"/>
+      <c r="DV10" t="inlineStr"/>
+      <c r="DW10" t="inlineStr"/>
+      <c r="DX10" t="inlineStr"/>
+      <c r="DY10" t="inlineStr"/>
+      <c r="DZ10" t="inlineStr"/>
+      <c r="EA10" t="inlineStr"/>
+      <c r="EB10" t="inlineStr"/>
+      <c r="EC10" t="inlineStr"/>
+      <c r="ED10" t="inlineStr"/>
+      <c r="EE10" t="inlineStr"/>
+      <c r="EF10" t="inlineStr"/>
+      <c r="EG10" t="inlineStr"/>
+      <c r="EH10" t="inlineStr"/>
+      <c r="EI10" t="inlineStr"/>
+      <c r="EJ10" t="inlineStr"/>
+      <c r="EK10" t="inlineStr"/>
+      <c r="EL10" t="inlineStr"/>
+      <c r="EM10" t="inlineStr"/>
+      <c r="EN10" t="inlineStr"/>
+      <c r="EO10" t="inlineStr"/>
+      <c r="EP10" t="inlineStr"/>
+      <c r="EQ10" t="inlineStr"/>
+      <c r="ER10" t="inlineStr"/>
+      <c r="ES10" t="inlineStr"/>
+      <c r="ET10" t="inlineStr"/>
+      <c r="EU10" t="inlineStr"/>
+      <c r="EV10" t="inlineStr"/>
+      <c r="EW10" t="inlineStr"/>
+      <c r="EX10" t="inlineStr"/>
+      <c r="EY10" t="inlineStr"/>
+      <c r="EZ10" t="inlineStr"/>
+      <c r="FA10" t="inlineStr"/>
+      <c r="FB10" t="inlineStr"/>
+      <c r="FC10" t="inlineStr"/>
+      <c r="FD10" t="inlineStr"/>
+      <c r="FE10" t="inlineStr"/>
+      <c r="FF10" t="inlineStr"/>
+      <c r="FG10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5233,7 +6157,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>e55ac8a0-ddb9-4c28-a8ba-f4b6b6bf3d16</t>
+          <t>8283ffd4-4a9b-4e07-863c-f03e6e89e0fa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -5243,7 +6167,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-02T18:03:00.000Z</t>
+          <t>2024-07-14T13:14:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -5256,7 +6180,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.notion.so/e55ac8a0ddb94c28a8baf4b6b6bf3d16</t>
+          <t>https://www.notion.so/8283ffd44a9b4e07863cf03e6e89e0fa</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -5277,7 +6201,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>30a14424-7f11-4ee5-a793-fece5c78e36c</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -5390,7 +6314,7 @@
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>[{'id': 'c463b1a9-4fb2-4258-87a7-44193ba02405'}]</t>
+          <t>[{'id': '3fac4a49-402c-4d34-aa91-419ebc20760c'}]</t>
         </is>
       </c>
       <c r="AR11" t="b">
@@ -5687,6 +6611,216 @@
       <c r="DQ11" t="inlineStr">
         <is>
           <t>[]</t>
+        </is>
+      </c>
+      <c r="DR11" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DS11" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DT11" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="DU11" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DV11" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DW11" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="DX11" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DY11" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DZ11" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EA11" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EB11" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EC11" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="ED11" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EE11" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EF11" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EG11" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EH11" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EI11" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EJ11" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EK11" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EL11" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EM11" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EN11" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EO11" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EP11" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EQ11" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="ER11" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="ES11" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="ET11" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EU11" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EV11" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EW11" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EX11" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EY11" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EZ11" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FA11" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FB11" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FC11" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FD11" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FE11" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FF11" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FG11" t="inlineStr">
+        <is>
+          <t>pink</t>
         </is>
       </c>
     </row>
@@ -5698,7 +6832,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ecb983da-61da-441e-9421-a71397f30b95</t>
+          <t>cff39a6c-a1c3-4dbd-bf53-21701351c2ed</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -5721,7 +6855,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.notion.so/ecb983da61da441e9421a71397f30b95</t>
+          <t>https://www.notion.so/cff39a6ca1c34dbdbf5321701351c2ed</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -5855,7 +6989,7 @@
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>[{'id': 'e49d0ce3-124d-4e4b-b377-be2139cde3f5'}]</t>
+          <t>[{'id': 'a73ea60d-3de1-4e9b-aa7b-f22fda5742bd'}]</t>
         </is>
       </c>
       <c r="AR12" t="b">
@@ -6154,6 +7288,48 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="DR12" t="inlineStr"/>
+      <c r="DS12" t="inlineStr"/>
+      <c r="DT12" t="inlineStr"/>
+      <c r="DU12" t="inlineStr"/>
+      <c r="DV12" t="inlineStr"/>
+      <c r="DW12" t="inlineStr"/>
+      <c r="DX12" t="inlineStr"/>
+      <c r="DY12" t="inlineStr"/>
+      <c r="DZ12" t="inlineStr"/>
+      <c r="EA12" t="inlineStr"/>
+      <c r="EB12" t="inlineStr"/>
+      <c r="EC12" t="inlineStr"/>
+      <c r="ED12" t="inlineStr"/>
+      <c r="EE12" t="inlineStr"/>
+      <c r="EF12" t="inlineStr"/>
+      <c r="EG12" t="inlineStr"/>
+      <c r="EH12" t="inlineStr"/>
+      <c r="EI12" t="inlineStr"/>
+      <c r="EJ12" t="inlineStr"/>
+      <c r="EK12" t="inlineStr"/>
+      <c r="EL12" t="inlineStr"/>
+      <c r="EM12" t="inlineStr"/>
+      <c r="EN12" t="inlineStr"/>
+      <c r="EO12" t="inlineStr"/>
+      <c r="EP12" t="inlineStr"/>
+      <c r="EQ12" t="inlineStr"/>
+      <c r="ER12" t="inlineStr"/>
+      <c r="ES12" t="inlineStr"/>
+      <c r="ET12" t="inlineStr"/>
+      <c r="EU12" t="inlineStr"/>
+      <c r="EV12" t="inlineStr"/>
+      <c r="EW12" t="inlineStr"/>
+      <c r="EX12" t="inlineStr"/>
+      <c r="EY12" t="inlineStr"/>
+      <c r="EZ12" t="inlineStr"/>
+      <c r="FA12" t="inlineStr"/>
+      <c r="FB12" t="inlineStr"/>
+      <c r="FC12" t="inlineStr"/>
+      <c r="FD12" t="inlineStr"/>
+      <c r="FE12" t="inlineStr"/>
+      <c r="FF12" t="inlineStr"/>
+      <c r="FG12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6163,7 +7339,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>f97afc18-a5a7-4d4f-a4b4-d5fb7237d715</t>
+          <t>0ea3a596-a391-4e49-9bcf-3f1a1b210bee</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -6173,7 +7349,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-02T18:03:00.000Z</t>
+          <t>2024-07-16T10:36:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -6186,7 +7362,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.notion.so/f97afc18a5a74d4fa4b4d5fb7237d715</t>
+          <t>https://www.notion.so/0ea3a596a3914e499bcf3f1a1b210bee</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -6207,7 +7383,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>30a14424-7f11-4ee5-a793-fece5c78e36c</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -6320,7 +7496,7 @@
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>[{'id': 'f973382b-037a-4eb1-84bc-e9e5318184b8'}]</t>
+          <t>[{'id': '75046948-a198-4627-89b3-3bbf5967526b'}]</t>
         </is>
       </c>
       <c r="AR13" t="b">
@@ -6617,6 +7793,72 @@
       <c r="DQ13" t="inlineStr">
         <is>
           <t>[]</t>
+        </is>
+      </c>
+      <c r="DR13" t="inlineStr"/>
+      <c r="DS13" t="inlineStr"/>
+      <c r="DT13" t="inlineStr"/>
+      <c r="DU13" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DV13" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DW13" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="DX13" t="inlineStr"/>
+      <c r="DY13" t="inlineStr"/>
+      <c r="DZ13" t="inlineStr"/>
+      <c r="EA13" t="inlineStr"/>
+      <c r="EB13" t="inlineStr"/>
+      <c r="EC13" t="inlineStr"/>
+      <c r="ED13" t="inlineStr"/>
+      <c r="EE13" t="inlineStr"/>
+      <c r="EF13" t="inlineStr"/>
+      <c r="EG13" t="inlineStr"/>
+      <c r="EH13" t="inlineStr"/>
+      <c r="EI13" t="inlineStr"/>
+      <c r="EJ13" t="inlineStr"/>
+      <c r="EK13" t="inlineStr"/>
+      <c r="EL13" t="inlineStr"/>
+      <c r="EM13" t="inlineStr"/>
+      <c r="EN13" t="inlineStr"/>
+      <c r="EO13" t="inlineStr"/>
+      <c r="EP13" t="inlineStr"/>
+      <c r="EQ13" t="inlineStr"/>
+      <c r="ER13" t="inlineStr"/>
+      <c r="ES13" t="inlineStr"/>
+      <c r="ET13" t="inlineStr"/>
+      <c r="EU13" t="inlineStr"/>
+      <c r="EV13" t="inlineStr"/>
+      <c r="EW13" t="inlineStr"/>
+      <c r="EX13" t="inlineStr"/>
+      <c r="EY13" t="inlineStr"/>
+      <c r="EZ13" t="inlineStr"/>
+      <c r="FA13" t="inlineStr"/>
+      <c r="FB13" t="inlineStr"/>
+      <c r="FC13" t="inlineStr"/>
+      <c r="FD13" t="inlineStr"/>
+      <c r="FE13" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FF13" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FG13" t="inlineStr">
+        <is>
+          <t>pink</t>
         </is>
       </c>
     </row>
@@ -6628,7 +7870,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>fb76b175-23ec-4697-b68e-a3e63eb472e0</t>
+          <t>46ce4346-5796-4086-a680-e30f35b1cf88</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -6651,7 +7893,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.notion.so/fb76b17523ec4697b68ea3e63eb472e0</t>
+          <t>https://www.notion.so/46ce434657964086a680e30f35b1cf88</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -6785,7 +8027,7 @@
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>[{'id': 'd1ae645f-f3dd-46cd-a715-a8c150605da6'}]</t>
+          <t>[{'id': 'b9c67786-5d99-45c1-85d7-f96bfb66ef22'}]</t>
         </is>
       </c>
       <c r="AR14" t="b">
@@ -7050,7 +8292,7 @@
       </c>
       <c r="DJ14" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
         </is>
       </c>
       <c r="DK14" t="inlineStr">
@@ -7084,6 +8326,3198 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="DR14" t="inlineStr"/>
+      <c r="DS14" t="inlineStr"/>
+      <c r="DT14" t="inlineStr"/>
+      <c r="DU14" t="inlineStr"/>
+      <c r="DV14" t="inlineStr"/>
+      <c r="DW14" t="inlineStr"/>
+      <c r="DX14" t="inlineStr"/>
+      <c r="DY14" t="inlineStr"/>
+      <c r="DZ14" t="inlineStr"/>
+      <c r="EA14" t="inlineStr"/>
+      <c r="EB14" t="inlineStr"/>
+      <c r="EC14" t="inlineStr"/>
+      <c r="ED14" t="inlineStr"/>
+      <c r="EE14" t="inlineStr"/>
+      <c r="EF14" t="inlineStr"/>
+      <c r="EG14" t="inlineStr"/>
+      <c r="EH14" t="inlineStr"/>
+      <c r="EI14" t="inlineStr"/>
+      <c r="EJ14" t="inlineStr"/>
+      <c r="EK14" t="inlineStr"/>
+      <c r="EL14" t="inlineStr"/>
+      <c r="EM14" t="inlineStr"/>
+      <c r="EN14" t="inlineStr"/>
+      <c r="EO14" t="inlineStr"/>
+      <c r="EP14" t="inlineStr"/>
+      <c r="EQ14" t="inlineStr"/>
+      <c r="ER14" t="inlineStr"/>
+      <c r="ES14" t="inlineStr"/>
+      <c r="ET14" t="inlineStr"/>
+      <c r="EU14" t="inlineStr"/>
+      <c r="EV14" t="inlineStr"/>
+      <c r="EW14" t="inlineStr"/>
+      <c r="EX14" t="inlineStr"/>
+      <c r="EY14" t="inlineStr"/>
+      <c r="EZ14" t="inlineStr"/>
+      <c r="FA14" t="inlineStr"/>
+      <c r="FB14" t="inlineStr"/>
+      <c r="FC14" t="inlineStr"/>
+      <c r="FD14" t="inlineStr"/>
+      <c r="FE14" t="inlineStr"/>
+      <c r="FF14" t="inlineStr"/>
+      <c r="FG14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>9da092fb-e107-4b58-9105-22caaa25853c</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2024-07-02T18:03:00.000Z</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2024-07-02T18:03:00.000Z</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/9da092fbe1074b58910522caaa25853c</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>c3e4dde0-278f-416b-9ee0-edd617b07a1e</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>%3BW%3FG</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>%3CJjN</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>%3CK%3FH</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>%3FA%7C%3C</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>BtWM</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>CwPo</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>DT%5Bd</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>J%7Bt%3C</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Kfrh</t>
+        </is>
+      </c>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>relation</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>[{'id': '3601e7b0-a80d-4dfd-bfa1-0d34a0e7e389'}]</t>
+        </is>
+      </c>
+      <c r="AR15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>K~Y%3D</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU15" t="inlineStr"/>
+      <c r="AV15" t="inlineStr">
+        <is>
+          <t>MVnS</t>
+        </is>
+      </c>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr"/>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>P%3Fjl</t>
+        </is>
+      </c>
+      <c r="AZ15" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BA15" t="inlineStr"/>
+      <c r="BB15" t="inlineStr">
+        <is>
+          <t>TVds</t>
+        </is>
+      </c>
+      <c r="BC15" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="inlineStr">
+        <is>
+          <t>TY%7C_</t>
+        </is>
+      </c>
+      <c r="BF15" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BG15" t="inlineStr"/>
+      <c r="BH15" t="inlineStr">
+        <is>
+          <t>YvCX</t>
+        </is>
+      </c>
+      <c r="BI15" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BJ15" t="inlineStr"/>
+      <c r="BK15" t="inlineStr">
+        <is>
+          <t>%5BBT%3C</t>
+        </is>
+      </c>
+      <c r="BL15" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BM15" t="inlineStr"/>
+      <c r="BN15" t="inlineStr">
+        <is>
+          <t>_%5Erb</t>
+        </is>
+      </c>
+      <c r="BO15" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BP15" t="inlineStr"/>
+      <c r="BQ15" t="inlineStr">
+        <is>
+          <t>%60duC</t>
+        </is>
+      </c>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BS15" t="inlineStr"/>
+      <c r="BT15" t="inlineStr">
+        <is>
+          <t>avzr</t>
+        </is>
+      </c>
+      <c r="BU15" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BV15" t="inlineStr"/>
+      <c r="BW15" t="inlineStr">
+        <is>
+          <t>b%3Fyl</t>
+        </is>
+      </c>
+      <c r="BX15" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BY15" t="inlineStr"/>
+      <c r="BZ15" t="inlineStr">
+        <is>
+          <t>bOrs</t>
+        </is>
+      </c>
+      <c r="CA15" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CB15" t="inlineStr"/>
+      <c r="CC15" t="inlineStr">
+        <is>
+          <t>e%5EUO</t>
+        </is>
+      </c>
+      <c r="CD15" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CE15" t="inlineStr"/>
+      <c r="CF15" t="inlineStr">
+        <is>
+          <t>fKUN</t>
+        </is>
+      </c>
+      <c r="CG15" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CH15" t="inlineStr"/>
+      <c r="CI15" t="inlineStr">
+        <is>
+          <t>fezN</t>
+        </is>
+      </c>
+      <c r="CJ15" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CK15" t="inlineStr"/>
+      <c r="CL15" t="inlineStr">
+        <is>
+          <t>iFzs</t>
+        </is>
+      </c>
+      <c r="CM15" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CN15" t="inlineStr"/>
+      <c r="CO15" t="inlineStr">
+        <is>
+          <t>jsqT</t>
+        </is>
+      </c>
+      <c r="CP15" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CQ15" t="inlineStr"/>
+      <c r="CR15" t="inlineStr">
+        <is>
+          <t>n%3CXZ</t>
+        </is>
+      </c>
+      <c r="CS15" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CT15" t="inlineStr"/>
+      <c r="CU15" t="inlineStr">
+        <is>
+          <t>rsuC</t>
+        </is>
+      </c>
+      <c r="CV15" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CW15" t="inlineStr"/>
+      <c r="CX15" t="inlineStr">
+        <is>
+          <t>yEwL</t>
+        </is>
+      </c>
+      <c r="CY15" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CZ15" t="inlineStr"/>
+      <c r="DA15" t="inlineStr">
+        <is>
+          <t>zBvN</t>
+        </is>
+      </c>
+      <c r="DB15" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DC15" t="inlineStr"/>
+      <c r="DD15" t="inlineStr">
+        <is>
+          <t>%7B%3EFf</t>
+        </is>
+      </c>
+      <c r="DE15" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DF15" t="inlineStr"/>
+      <c r="DG15" t="inlineStr">
+        <is>
+          <t>%7BVCZ</t>
+        </is>
+      </c>
+      <c r="DH15" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="DI15" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="DJ15" t="inlineStr">
+        <is>
+          <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
+        </is>
+      </c>
+      <c r="DK15" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="DL15" t="inlineStr">
+        <is>
+          <t>~q%3Ax</t>
+        </is>
+      </c>
+      <c r="DM15" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DN15" t="inlineStr"/>
+      <c r="DO15" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="DP15" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="DQ15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="DR15" t="inlineStr"/>
+      <c r="DS15" t="inlineStr"/>
+      <c r="DT15" t="inlineStr"/>
+      <c r="DU15" t="inlineStr"/>
+      <c r="DV15" t="inlineStr"/>
+      <c r="DW15" t="inlineStr"/>
+      <c r="DX15" t="inlineStr"/>
+      <c r="DY15" t="inlineStr"/>
+      <c r="DZ15" t="inlineStr"/>
+      <c r="EA15" t="inlineStr"/>
+      <c r="EB15" t="inlineStr"/>
+      <c r="EC15" t="inlineStr"/>
+      <c r="ED15" t="inlineStr"/>
+      <c r="EE15" t="inlineStr"/>
+      <c r="EF15" t="inlineStr"/>
+      <c r="EG15" t="inlineStr"/>
+      <c r="EH15" t="inlineStr"/>
+      <c r="EI15" t="inlineStr"/>
+      <c r="EJ15" t="inlineStr"/>
+      <c r="EK15" t="inlineStr"/>
+      <c r="EL15" t="inlineStr"/>
+      <c r="EM15" t="inlineStr"/>
+      <c r="EN15" t="inlineStr"/>
+      <c r="EO15" t="inlineStr"/>
+      <c r="EP15" t="inlineStr"/>
+      <c r="EQ15" t="inlineStr"/>
+      <c r="ER15" t="inlineStr"/>
+      <c r="ES15" t="inlineStr"/>
+      <c r="ET15" t="inlineStr"/>
+      <c r="EU15" t="inlineStr"/>
+      <c r="EV15" t="inlineStr"/>
+      <c r="EW15" t="inlineStr"/>
+      <c r="EX15" t="inlineStr"/>
+      <c r="EY15" t="inlineStr"/>
+      <c r="EZ15" t="inlineStr"/>
+      <c r="FA15" t="inlineStr"/>
+      <c r="FB15" t="inlineStr"/>
+      <c r="FC15" t="inlineStr"/>
+      <c r="FD15" t="inlineStr"/>
+      <c r="FE15" t="inlineStr"/>
+      <c r="FF15" t="inlineStr"/>
+      <c r="FG15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>bedf0744-47fa-46bd-8131-f1a5cf03b8f1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2024-07-02T18:03:00.000Z</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2024-07-02T18:03:00.000Z</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/bedf074447fa46bd8131f1a5cf03b8f1</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>c3e4dde0-278f-416b-9ee0-edd617b07a1e</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>%3BW%3FG</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>%3CJjN</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>%3CK%3FH</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>%3FA%7C%3C</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>BtWM</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>CwPo</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>DT%5Bd</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>J%7Bt%3C</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Kfrh</t>
+        </is>
+      </c>
+      <c r="AP16" t="inlineStr">
+        <is>
+          <t>relation</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>[{'id': '467f676f-8f46-49b5-afea-feecb0794d23'}]</t>
+        </is>
+      </c>
+      <c r="AR16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>K~Y%3D</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU16" t="inlineStr"/>
+      <c r="AV16" t="inlineStr">
+        <is>
+          <t>MVnS</t>
+        </is>
+      </c>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr"/>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>P%3Fjl</t>
+        </is>
+      </c>
+      <c r="AZ16" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BA16" t="inlineStr"/>
+      <c r="BB16" t="inlineStr">
+        <is>
+          <t>TVds</t>
+        </is>
+      </c>
+      <c r="BC16" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BD16" t="inlineStr"/>
+      <c r="BE16" t="inlineStr">
+        <is>
+          <t>TY%7C_</t>
+        </is>
+      </c>
+      <c r="BF16" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BG16" t="inlineStr"/>
+      <c r="BH16" t="inlineStr">
+        <is>
+          <t>YvCX</t>
+        </is>
+      </c>
+      <c r="BI16" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BJ16" t="inlineStr"/>
+      <c r="BK16" t="inlineStr">
+        <is>
+          <t>%5BBT%3C</t>
+        </is>
+      </c>
+      <c r="BL16" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BM16" t="inlineStr"/>
+      <c r="BN16" t="inlineStr">
+        <is>
+          <t>_%5Erb</t>
+        </is>
+      </c>
+      <c r="BO16" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BP16" t="inlineStr"/>
+      <c r="BQ16" t="inlineStr">
+        <is>
+          <t>%60duC</t>
+        </is>
+      </c>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BS16" t="inlineStr"/>
+      <c r="BT16" t="inlineStr">
+        <is>
+          <t>avzr</t>
+        </is>
+      </c>
+      <c r="BU16" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BV16" t="inlineStr"/>
+      <c r="BW16" t="inlineStr">
+        <is>
+          <t>b%3Fyl</t>
+        </is>
+      </c>
+      <c r="BX16" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BY16" t="inlineStr"/>
+      <c r="BZ16" t="inlineStr">
+        <is>
+          <t>bOrs</t>
+        </is>
+      </c>
+      <c r="CA16" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CB16" t="inlineStr"/>
+      <c r="CC16" t="inlineStr">
+        <is>
+          <t>e%5EUO</t>
+        </is>
+      </c>
+      <c r="CD16" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CE16" t="inlineStr"/>
+      <c r="CF16" t="inlineStr">
+        <is>
+          <t>fKUN</t>
+        </is>
+      </c>
+      <c r="CG16" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CH16" t="inlineStr"/>
+      <c r="CI16" t="inlineStr">
+        <is>
+          <t>fezN</t>
+        </is>
+      </c>
+      <c r="CJ16" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CK16" t="inlineStr"/>
+      <c r="CL16" t="inlineStr">
+        <is>
+          <t>iFzs</t>
+        </is>
+      </c>
+      <c r="CM16" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CN16" t="inlineStr"/>
+      <c r="CO16" t="inlineStr">
+        <is>
+          <t>jsqT</t>
+        </is>
+      </c>
+      <c r="CP16" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CQ16" t="inlineStr"/>
+      <c r="CR16" t="inlineStr">
+        <is>
+          <t>n%3CXZ</t>
+        </is>
+      </c>
+      <c r="CS16" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CT16" t="inlineStr"/>
+      <c r="CU16" t="inlineStr">
+        <is>
+          <t>rsuC</t>
+        </is>
+      </c>
+      <c r="CV16" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CW16" t="inlineStr"/>
+      <c r="CX16" t="inlineStr">
+        <is>
+          <t>yEwL</t>
+        </is>
+      </c>
+      <c r="CY16" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CZ16" t="inlineStr"/>
+      <c r="DA16" t="inlineStr">
+        <is>
+          <t>zBvN</t>
+        </is>
+      </c>
+      <c r="DB16" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DC16" t="inlineStr"/>
+      <c r="DD16" t="inlineStr">
+        <is>
+          <t>%7B%3EFf</t>
+        </is>
+      </c>
+      <c r="DE16" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DF16" t="inlineStr"/>
+      <c r="DG16" t="inlineStr">
+        <is>
+          <t>%7BVCZ</t>
+        </is>
+      </c>
+      <c r="DH16" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="DI16" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="DJ16" t="inlineStr">
+        <is>
+          <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
+        </is>
+      </c>
+      <c r="DK16" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="DL16" t="inlineStr">
+        <is>
+          <t>~q%3Ax</t>
+        </is>
+      </c>
+      <c r="DM16" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DN16" t="inlineStr"/>
+      <c r="DO16" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="DP16" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="DQ16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="DR16" t="inlineStr"/>
+      <c r="DS16" t="inlineStr"/>
+      <c r="DT16" t="inlineStr"/>
+      <c r="DU16" t="inlineStr"/>
+      <c r="DV16" t="inlineStr"/>
+      <c r="DW16" t="inlineStr"/>
+      <c r="DX16" t="inlineStr"/>
+      <c r="DY16" t="inlineStr"/>
+      <c r="DZ16" t="inlineStr"/>
+      <c r="EA16" t="inlineStr"/>
+      <c r="EB16" t="inlineStr"/>
+      <c r="EC16" t="inlineStr"/>
+      <c r="ED16" t="inlineStr"/>
+      <c r="EE16" t="inlineStr"/>
+      <c r="EF16" t="inlineStr"/>
+      <c r="EG16" t="inlineStr"/>
+      <c r="EH16" t="inlineStr"/>
+      <c r="EI16" t="inlineStr"/>
+      <c r="EJ16" t="inlineStr"/>
+      <c r="EK16" t="inlineStr"/>
+      <c r="EL16" t="inlineStr"/>
+      <c r="EM16" t="inlineStr"/>
+      <c r="EN16" t="inlineStr"/>
+      <c r="EO16" t="inlineStr"/>
+      <c r="EP16" t="inlineStr"/>
+      <c r="EQ16" t="inlineStr"/>
+      <c r="ER16" t="inlineStr"/>
+      <c r="ES16" t="inlineStr"/>
+      <c r="ET16" t="inlineStr"/>
+      <c r="EU16" t="inlineStr"/>
+      <c r="EV16" t="inlineStr"/>
+      <c r="EW16" t="inlineStr"/>
+      <c r="EX16" t="inlineStr"/>
+      <c r="EY16" t="inlineStr"/>
+      <c r="EZ16" t="inlineStr"/>
+      <c r="FA16" t="inlineStr"/>
+      <c r="FB16" t="inlineStr"/>
+      <c r="FC16" t="inlineStr"/>
+      <c r="FD16" t="inlineStr"/>
+      <c r="FE16" t="inlineStr"/>
+      <c r="FF16" t="inlineStr"/>
+      <c r="FG16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>e55ac8a0-ddb9-4c28-a8ba-f4b6b6bf3d16</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2024-07-02T18:03:00.000Z</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2024-07-14T13:14:00.000Z</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/e55ac8a0ddb94c28a8baf4b6b6bf3d16</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>30a14424-7f11-4ee5-a793-fece5c78e36c</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>c3e4dde0-278f-416b-9ee0-edd617b07a1e</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>%3BW%3FG</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>%3CJjN</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>%3CK%3FH</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>%3FA%7C%3C</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>BtWM</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>CwPo</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>DT%5Bd</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>J%7Bt%3C</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Kfrh</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>relation</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>[{'id': 'c463b1a9-4fb2-4258-87a7-44193ba02405'}]</t>
+        </is>
+      </c>
+      <c r="AR17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>K~Y%3D</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU17" t="inlineStr"/>
+      <c r="AV17" t="inlineStr">
+        <is>
+          <t>MVnS</t>
+        </is>
+      </c>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr"/>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>P%3Fjl</t>
+        </is>
+      </c>
+      <c r="AZ17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BA17" t="inlineStr"/>
+      <c r="BB17" t="inlineStr">
+        <is>
+          <t>TVds</t>
+        </is>
+      </c>
+      <c r="BC17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BD17" t="inlineStr"/>
+      <c r="BE17" t="inlineStr">
+        <is>
+          <t>TY%7C_</t>
+        </is>
+      </c>
+      <c r="BF17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BG17" t="inlineStr"/>
+      <c r="BH17" t="inlineStr">
+        <is>
+          <t>YvCX</t>
+        </is>
+      </c>
+      <c r="BI17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BJ17" t="inlineStr"/>
+      <c r="BK17" t="inlineStr">
+        <is>
+          <t>%5BBT%3C</t>
+        </is>
+      </c>
+      <c r="BL17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BM17" t="inlineStr"/>
+      <c r="BN17" t="inlineStr">
+        <is>
+          <t>_%5Erb</t>
+        </is>
+      </c>
+      <c r="BO17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BP17" t="inlineStr"/>
+      <c r="BQ17" t="inlineStr">
+        <is>
+          <t>%60duC</t>
+        </is>
+      </c>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BS17" t="inlineStr"/>
+      <c r="BT17" t="inlineStr">
+        <is>
+          <t>avzr</t>
+        </is>
+      </c>
+      <c r="BU17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BV17" t="inlineStr"/>
+      <c r="BW17" t="inlineStr">
+        <is>
+          <t>b%3Fyl</t>
+        </is>
+      </c>
+      <c r="BX17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BY17" t="inlineStr"/>
+      <c r="BZ17" t="inlineStr">
+        <is>
+          <t>bOrs</t>
+        </is>
+      </c>
+      <c r="CA17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CB17" t="inlineStr"/>
+      <c r="CC17" t="inlineStr">
+        <is>
+          <t>e%5EUO</t>
+        </is>
+      </c>
+      <c r="CD17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CE17" t="inlineStr"/>
+      <c r="CF17" t="inlineStr">
+        <is>
+          <t>fKUN</t>
+        </is>
+      </c>
+      <c r="CG17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CH17" t="inlineStr"/>
+      <c r="CI17" t="inlineStr">
+        <is>
+          <t>fezN</t>
+        </is>
+      </c>
+      <c r="CJ17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CK17" t="inlineStr"/>
+      <c r="CL17" t="inlineStr">
+        <is>
+          <t>iFzs</t>
+        </is>
+      </c>
+      <c r="CM17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CN17" t="inlineStr"/>
+      <c r="CO17" t="inlineStr">
+        <is>
+          <t>jsqT</t>
+        </is>
+      </c>
+      <c r="CP17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CQ17" t="inlineStr"/>
+      <c r="CR17" t="inlineStr">
+        <is>
+          <t>n%3CXZ</t>
+        </is>
+      </c>
+      <c r="CS17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CT17" t="inlineStr"/>
+      <c r="CU17" t="inlineStr">
+        <is>
+          <t>rsuC</t>
+        </is>
+      </c>
+      <c r="CV17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CW17" t="inlineStr"/>
+      <c r="CX17" t="inlineStr">
+        <is>
+          <t>yEwL</t>
+        </is>
+      </c>
+      <c r="CY17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CZ17" t="inlineStr"/>
+      <c r="DA17" t="inlineStr">
+        <is>
+          <t>zBvN</t>
+        </is>
+      </c>
+      <c r="DB17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DC17" t="inlineStr"/>
+      <c r="DD17" t="inlineStr">
+        <is>
+          <t>%7B%3EFf</t>
+        </is>
+      </c>
+      <c r="DE17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DF17" t="inlineStr"/>
+      <c r="DG17" t="inlineStr">
+        <is>
+          <t>%7BVCZ</t>
+        </is>
+      </c>
+      <c r="DH17" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="DI17" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="DJ17" t="inlineStr">
+        <is>
+          <t>[{'type': 'select', 'select': {'id': 'VWB;', 'name': 'SÓC TRĂNG', 'color': 'red'}}]</t>
+        </is>
+      </c>
+      <c r="DK17" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="DL17" t="inlineStr">
+        <is>
+          <t>~q%3Ax</t>
+        </is>
+      </c>
+      <c r="DM17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DN17" t="inlineStr"/>
+      <c r="DO17" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="DP17" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="DQ17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="DR17" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DS17" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DT17" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="DU17" t="inlineStr"/>
+      <c r="DV17" t="inlineStr"/>
+      <c r="DW17" t="inlineStr"/>
+      <c r="DX17" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DY17" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DZ17" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EA17" t="inlineStr"/>
+      <c r="EB17" t="inlineStr"/>
+      <c r="EC17" t="inlineStr"/>
+      <c r="ED17" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EE17" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EF17" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EG17" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EH17" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EI17" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EJ17" t="inlineStr"/>
+      <c r="EK17" t="inlineStr"/>
+      <c r="EL17" t="inlineStr"/>
+      <c r="EM17" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EN17" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EO17" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EP17" t="inlineStr"/>
+      <c r="EQ17" t="inlineStr"/>
+      <c r="ER17" t="inlineStr"/>
+      <c r="ES17" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="ET17" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EU17" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EV17" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EW17" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EX17" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EY17" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EZ17" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FA17" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FB17" t="inlineStr"/>
+      <c r="FC17" t="inlineStr"/>
+      <c r="FD17" t="inlineStr"/>
+      <c r="FE17" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FF17" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FG17" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ecb983da-61da-441e-9421-a71397f30b95</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2024-07-02T18:03:00.000Z</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2024-07-02T18:03:00.000Z</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/ecb983da61da441e9421a71397f30b95</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>c3e4dde0-278f-416b-9ee0-edd617b07a1e</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>%3BW%3FG</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>%3CJjN</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>%3CK%3FH</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>%3FA%7C%3C</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>BtWM</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>CwPo</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>DT%5Bd</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>J%7Bt%3C</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Kfrh</t>
+        </is>
+      </c>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>relation</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>[{'id': 'e49d0ce3-124d-4e4b-b377-be2139cde3f5'}]</t>
+        </is>
+      </c>
+      <c r="AR18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>K~Y%3D</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU18" t="inlineStr"/>
+      <c r="AV18" t="inlineStr">
+        <is>
+          <t>MVnS</t>
+        </is>
+      </c>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr"/>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>P%3Fjl</t>
+        </is>
+      </c>
+      <c r="AZ18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BA18" t="inlineStr"/>
+      <c r="BB18" t="inlineStr">
+        <is>
+          <t>TVds</t>
+        </is>
+      </c>
+      <c r="BC18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BD18" t="inlineStr"/>
+      <c r="BE18" t="inlineStr">
+        <is>
+          <t>TY%7C_</t>
+        </is>
+      </c>
+      <c r="BF18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BG18" t="inlineStr"/>
+      <c r="BH18" t="inlineStr">
+        <is>
+          <t>YvCX</t>
+        </is>
+      </c>
+      <c r="BI18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BJ18" t="inlineStr"/>
+      <c r="BK18" t="inlineStr">
+        <is>
+          <t>%5BBT%3C</t>
+        </is>
+      </c>
+      <c r="BL18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BM18" t="inlineStr"/>
+      <c r="BN18" t="inlineStr">
+        <is>
+          <t>_%5Erb</t>
+        </is>
+      </c>
+      <c r="BO18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BP18" t="inlineStr"/>
+      <c r="BQ18" t="inlineStr">
+        <is>
+          <t>%60duC</t>
+        </is>
+      </c>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BS18" t="inlineStr"/>
+      <c r="BT18" t="inlineStr">
+        <is>
+          <t>avzr</t>
+        </is>
+      </c>
+      <c r="BU18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BV18" t="inlineStr"/>
+      <c r="BW18" t="inlineStr">
+        <is>
+          <t>b%3Fyl</t>
+        </is>
+      </c>
+      <c r="BX18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BY18" t="inlineStr"/>
+      <c r="BZ18" t="inlineStr">
+        <is>
+          <t>bOrs</t>
+        </is>
+      </c>
+      <c r="CA18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CB18" t="inlineStr"/>
+      <c r="CC18" t="inlineStr">
+        <is>
+          <t>e%5EUO</t>
+        </is>
+      </c>
+      <c r="CD18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CE18" t="inlineStr"/>
+      <c r="CF18" t="inlineStr">
+        <is>
+          <t>fKUN</t>
+        </is>
+      </c>
+      <c r="CG18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CH18" t="inlineStr"/>
+      <c r="CI18" t="inlineStr">
+        <is>
+          <t>fezN</t>
+        </is>
+      </c>
+      <c r="CJ18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CK18" t="inlineStr"/>
+      <c r="CL18" t="inlineStr">
+        <is>
+          <t>iFzs</t>
+        </is>
+      </c>
+      <c r="CM18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CN18" t="inlineStr"/>
+      <c r="CO18" t="inlineStr">
+        <is>
+          <t>jsqT</t>
+        </is>
+      </c>
+      <c r="CP18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CQ18" t="inlineStr"/>
+      <c r="CR18" t="inlineStr">
+        <is>
+          <t>n%3CXZ</t>
+        </is>
+      </c>
+      <c r="CS18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CT18" t="inlineStr"/>
+      <c r="CU18" t="inlineStr">
+        <is>
+          <t>rsuC</t>
+        </is>
+      </c>
+      <c r="CV18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CW18" t="inlineStr"/>
+      <c r="CX18" t="inlineStr">
+        <is>
+          <t>yEwL</t>
+        </is>
+      </c>
+      <c r="CY18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CZ18" t="inlineStr"/>
+      <c r="DA18" t="inlineStr">
+        <is>
+          <t>zBvN</t>
+        </is>
+      </c>
+      <c r="DB18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DC18" t="inlineStr"/>
+      <c r="DD18" t="inlineStr">
+        <is>
+          <t>%7B%3EFf</t>
+        </is>
+      </c>
+      <c r="DE18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DF18" t="inlineStr"/>
+      <c r="DG18" t="inlineStr">
+        <is>
+          <t>%7BVCZ</t>
+        </is>
+      </c>
+      <c r="DH18" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="DI18" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="DJ18" t="inlineStr">
+        <is>
+          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
+        </is>
+      </c>
+      <c r="DK18" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="DL18" t="inlineStr">
+        <is>
+          <t>~q%3Ax</t>
+        </is>
+      </c>
+      <c r="DM18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DN18" t="inlineStr"/>
+      <c r="DO18" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="DP18" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="DQ18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="DR18" t="inlineStr"/>
+      <c r="DS18" t="inlineStr"/>
+      <c r="DT18" t="inlineStr"/>
+      <c r="DU18" t="inlineStr"/>
+      <c r="DV18" t="inlineStr"/>
+      <c r="DW18" t="inlineStr"/>
+      <c r="DX18" t="inlineStr"/>
+      <c r="DY18" t="inlineStr"/>
+      <c r="DZ18" t="inlineStr"/>
+      <c r="EA18" t="inlineStr"/>
+      <c r="EB18" t="inlineStr"/>
+      <c r="EC18" t="inlineStr"/>
+      <c r="ED18" t="inlineStr"/>
+      <c r="EE18" t="inlineStr"/>
+      <c r="EF18" t="inlineStr"/>
+      <c r="EG18" t="inlineStr"/>
+      <c r="EH18" t="inlineStr"/>
+      <c r="EI18" t="inlineStr"/>
+      <c r="EJ18" t="inlineStr"/>
+      <c r="EK18" t="inlineStr"/>
+      <c r="EL18" t="inlineStr"/>
+      <c r="EM18" t="inlineStr"/>
+      <c r="EN18" t="inlineStr"/>
+      <c r="EO18" t="inlineStr"/>
+      <c r="EP18" t="inlineStr"/>
+      <c r="EQ18" t="inlineStr"/>
+      <c r="ER18" t="inlineStr"/>
+      <c r="ES18" t="inlineStr"/>
+      <c r="ET18" t="inlineStr"/>
+      <c r="EU18" t="inlineStr"/>
+      <c r="EV18" t="inlineStr"/>
+      <c r="EW18" t="inlineStr"/>
+      <c r="EX18" t="inlineStr"/>
+      <c r="EY18" t="inlineStr"/>
+      <c r="EZ18" t="inlineStr"/>
+      <c r="FA18" t="inlineStr"/>
+      <c r="FB18" t="inlineStr"/>
+      <c r="FC18" t="inlineStr"/>
+      <c r="FD18" t="inlineStr"/>
+      <c r="FE18" t="inlineStr"/>
+      <c r="FF18" t="inlineStr"/>
+      <c r="FG18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>f97afc18-a5a7-4d4f-a4b4-d5fb7237d715</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2024-07-02T18:03:00.000Z</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2024-07-02T18:03:00.000Z</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/f97afc18a5a74d4fa4b4d5fb7237d715</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>c3e4dde0-278f-416b-9ee0-edd617b07a1e</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>%3BW%3FG</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>%3CJjN</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>%3CK%3FH</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>%3FA%7C%3C</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>BtWM</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>CwPo</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>DT%5Bd</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>J%7Bt%3C</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Kfrh</t>
+        </is>
+      </c>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t>relation</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>[{'id': 'f973382b-037a-4eb1-84bc-e9e5318184b8'}]</t>
+        </is>
+      </c>
+      <c r="AR19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>K~Y%3D</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU19" t="inlineStr"/>
+      <c r="AV19" t="inlineStr">
+        <is>
+          <t>MVnS</t>
+        </is>
+      </c>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr"/>
+      <c r="AY19" t="inlineStr">
+        <is>
+          <t>P%3Fjl</t>
+        </is>
+      </c>
+      <c r="AZ19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BA19" t="inlineStr"/>
+      <c r="BB19" t="inlineStr">
+        <is>
+          <t>TVds</t>
+        </is>
+      </c>
+      <c r="BC19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BD19" t="inlineStr"/>
+      <c r="BE19" t="inlineStr">
+        <is>
+          <t>TY%7C_</t>
+        </is>
+      </c>
+      <c r="BF19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BG19" t="inlineStr"/>
+      <c r="BH19" t="inlineStr">
+        <is>
+          <t>YvCX</t>
+        </is>
+      </c>
+      <c r="BI19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BJ19" t="inlineStr"/>
+      <c r="BK19" t="inlineStr">
+        <is>
+          <t>%5BBT%3C</t>
+        </is>
+      </c>
+      <c r="BL19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BM19" t="inlineStr"/>
+      <c r="BN19" t="inlineStr">
+        <is>
+          <t>_%5Erb</t>
+        </is>
+      </c>
+      <c r="BO19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BP19" t="inlineStr"/>
+      <c r="BQ19" t="inlineStr">
+        <is>
+          <t>%60duC</t>
+        </is>
+      </c>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BS19" t="inlineStr"/>
+      <c r="BT19" t="inlineStr">
+        <is>
+          <t>avzr</t>
+        </is>
+      </c>
+      <c r="BU19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BV19" t="inlineStr"/>
+      <c r="BW19" t="inlineStr">
+        <is>
+          <t>b%3Fyl</t>
+        </is>
+      </c>
+      <c r="BX19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BY19" t="inlineStr"/>
+      <c r="BZ19" t="inlineStr">
+        <is>
+          <t>bOrs</t>
+        </is>
+      </c>
+      <c r="CA19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CB19" t="inlineStr"/>
+      <c r="CC19" t="inlineStr">
+        <is>
+          <t>e%5EUO</t>
+        </is>
+      </c>
+      <c r="CD19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CE19" t="inlineStr"/>
+      <c r="CF19" t="inlineStr">
+        <is>
+          <t>fKUN</t>
+        </is>
+      </c>
+      <c r="CG19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CH19" t="inlineStr"/>
+      <c r="CI19" t="inlineStr">
+        <is>
+          <t>fezN</t>
+        </is>
+      </c>
+      <c r="CJ19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CK19" t="inlineStr"/>
+      <c r="CL19" t="inlineStr">
+        <is>
+          <t>iFzs</t>
+        </is>
+      </c>
+      <c r="CM19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CN19" t="inlineStr"/>
+      <c r="CO19" t="inlineStr">
+        <is>
+          <t>jsqT</t>
+        </is>
+      </c>
+      <c r="CP19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CQ19" t="inlineStr"/>
+      <c r="CR19" t="inlineStr">
+        <is>
+          <t>n%3CXZ</t>
+        </is>
+      </c>
+      <c r="CS19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CT19" t="inlineStr"/>
+      <c r="CU19" t="inlineStr">
+        <is>
+          <t>rsuC</t>
+        </is>
+      </c>
+      <c r="CV19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CW19" t="inlineStr"/>
+      <c r="CX19" t="inlineStr">
+        <is>
+          <t>yEwL</t>
+        </is>
+      </c>
+      <c r="CY19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CZ19" t="inlineStr"/>
+      <c r="DA19" t="inlineStr">
+        <is>
+          <t>zBvN</t>
+        </is>
+      </c>
+      <c r="DB19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DC19" t="inlineStr"/>
+      <c r="DD19" t="inlineStr">
+        <is>
+          <t>%7B%3EFf</t>
+        </is>
+      </c>
+      <c r="DE19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DF19" t="inlineStr"/>
+      <c r="DG19" t="inlineStr">
+        <is>
+          <t>%7BVCZ</t>
+        </is>
+      </c>
+      <c r="DH19" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="DI19" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="DJ19" t="inlineStr">
+        <is>
+          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
+        </is>
+      </c>
+      <c r="DK19" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="DL19" t="inlineStr">
+        <is>
+          <t>~q%3Ax</t>
+        </is>
+      </c>
+      <c r="DM19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DN19" t="inlineStr"/>
+      <c r="DO19" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="DP19" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="DQ19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="DR19" t="inlineStr"/>
+      <c r="DS19" t="inlineStr"/>
+      <c r="DT19" t="inlineStr"/>
+      <c r="DU19" t="inlineStr"/>
+      <c r="DV19" t="inlineStr"/>
+      <c r="DW19" t="inlineStr"/>
+      <c r="DX19" t="inlineStr"/>
+      <c r="DY19" t="inlineStr"/>
+      <c r="DZ19" t="inlineStr"/>
+      <c r="EA19" t="inlineStr"/>
+      <c r="EB19" t="inlineStr"/>
+      <c r="EC19" t="inlineStr"/>
+      <c r="ED19" t="inlineStr"/>
+      <c r="EE19" t="inlineStr"/>
+      <c r="EF19" t="inlineStr"/>
+      <c r="EG19" t="inlineStr"/>
+      <c r="EH19" t="inlineStr"/>
+      <c r="EI19" t="inlineStr"/>
+      <c r="EJ19" t="inlineStr"/>
+      <c r="EK19" t="inlineStr"/>
+      <c r="EL19" t="inlineStr"/>
+      <c r="EM19" t="inlineStr"/>
+      <c r="EN19" t="inlineStr"/>
+      <c r="EO19" t="inlineStr"/>
+      <c r="EP19" t="inlineStr"/>
+      <c r="EQ19" t="inlineStr"/>
+      <c r="ER19" t="inlineStr"/>
+      <c r="ES19" t="inlineStr"/>
+      <c r="ET19" t="inlineStr"/>
+      <c r="EU19" t="inlineStr"/>
+      <c r="EV19" t="inlineStr"/>
+      <c r="EW19" t="inlineStr"/>
+      <c r="EX19" t="inlineStr"/>
+      <c r="EY19" t="inlineStr"/>
+      <c r="EZ19" t="inlineStr"/>
+      <c r="FA19" t="inlineStr"/>
+      <c r="FB19" t="inlineStr"/>
+      <c r="FC19" t="inlineStr"/>
+      <c r="FD19" t="inlineStr"/>
+      <c r="FE19" t="inlineStr"/>
+      <c r="FF19" t="inlineStr"/>
+      <c r="FG19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>fb76b175-23ec-4697-b68e-a3e63eb472e0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2024-07-02T18:03:00.000Z</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2024-07-02T18:03:00.000Z</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/fb76b17523ec4697b68ea3e63eb472e0</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>c3e4dde0-278f-416b-9ee0-edd617b07a1e</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>%3BW%3FG</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>%3CJjN</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>%3CK%3FH</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>%3FA%7C%3C</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>BtWM</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>CwPo</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>DT%5Bd</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>J%7Bt%3C</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Kfrh</t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>relation</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>[{'id': 'd1ae645f-f3dd-46cd-a715-a8c150605da6'}]</t>
+        </is>
+      </c>
+      <c r="AR20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>K~Y%3D</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU20" t="inlineStr"/>
+      <c r="AV20" t="inlineStr">
+        <is>
+          <t>MVnS</t>
+        </is>
+      </c>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr"/>
+      <c r="AY20" t="inlineStr">
+        <is>
+          <t>P%3Fjl</t>
+        </is>
+      </c>
+      <c r="AZ20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BA20" t="inlineStr"/>
+      <c r="BB20" t="inlineStr">
+        <is>
+          <t>TVds</t>
+        </is>
+      </c>
+      <c r="BC20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BD20" t="inlineStr"/>
+      <c r="BE20" t="inlineStr">
+        <is>
+          <t>TY%7C_</t>
+        </is>
+      </c>
+      <c r="BF20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BG20" t="inlineStr"/>
+      <c r="BH20" t="inlineStr">
+        <is>
+          <t>YvCX</t>
+        </is>
+      </c>
+      <c r="BI20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BJ20" t="inlineStr"/>
+      <c r="BK20" t="inlineStr">
+        <is>
+          <t>%5BBT%3C</t>
+        </is>
+      </c>
+      <c r="BL20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BM20" t="inlineStr"/>
+      <c r="BN20" t="inlineStr">
+        <is>
+          <t>_%5Erb</t>
+        </is>
+      </c>
+      <c r="BO20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BP20" t="inlineStr"/>
+      <c r="BQ20" t="inlineStr">
+        <is>
+          <t>%60duC</t>
+        </is>
+      </c>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BS20" t="inlineStr"/>
+      <c r="BT20" t="inlineStr">
+        <is>
+          <t>avzr</t>
+        </is>
+      </c>
+      <c r="BU20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BV20" t="inlineStr"/>
+      <c r="BW20" t="inlineStr">
+        <is>
+          <t>b%3Fyl</t>
+        </is>
+      </c>
+      <c r="BX20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BY20" t="inlineStr"/>
+      <c r="BZ20" t="inlineStr">
+        <is>
+          <t>bOrs</t>
+        </is>
+      </c>
+      <c r="CA20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CB20" t="inlineStr"/>
+      <c r="CC20" t="inlineStr">
+        <is>
+          <t>e%5EUO</t>
+        </is>
+      </c>
+      <c r="CD20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CE20" t="inlineStr"/>
+      <c r="CF20" t="inlineStr">
+        <is>
+          <t>fKUN</t>
+        </is>
+      </c>
+      <c r="CG20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CH20" t="inlineStr"/>
+      <c r="CI20" t="inlineStr">
+        <is>
+          <t>fezN</t>
+        </is>
+      </c>
+      <c r="CJ20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CK20" t="inlineStr"/>
+      <c r="CL20" t="inlineStr">
+        <is>
+          <t>iFzs</t>
+        </is>
+      </c>
+      <c r="CM20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CN20" t="inlineStr"/>
+      <c r="CO20" t="inlineStr">
+        <is>
+          <t>jsqT</t>
+        </is>
+      </c>
+      <c r="CP20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CQ20" t="inlineStr"/>
+      <c r="CR20" t="inlineStr">
+        <is>
+          <t>n%3CXZ</t>
+        </is>
+      </c>
+      <c r="CS20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CT20" t="inlineStr"/>
+      <c r="CU20" t="inlineStr">
+        <is>
+          <t>rsuC</t>
+        </is>
+      </c>
+      <c r="CV20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CW20" t="inlineStr"/>
+      <c r="CX20" t="inlineStr">
+        <is>
+          <t>yEwL</t>
+        </is>
+      </c>
+      <c r="CY20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CZ20" t="inlineStr"/>
+      <c r="DA20" t="inlineStr">
+        <is>
+          <t>zBvN</t>
+        </is>
+      </c>
+      <c r="DB20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DC20" t="inlineStr"/>
+      <c r="DD20" t="inlineStr">
+        <is>
+          <t>%7B%3EFf</t>
+        </is>
+      </c>
+      <c r="DE20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DF20" t="inlineStr"/>
+      <c r="DG20" t="inlineStr">
+        <is>
+          <t>%7BVCZ</t>
+        </is>
+      </c>
+      <c r="DH20" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="DI20" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="DJ20" t="inlineStr">
+        <is>
+          <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
+        </is>
+      </c>
+      <c r="DK20" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="DL20" t="inlineStr">
+        <is>
+          <t>~q%3Ax</t>
+        </is>
+      </c>
+      <c r="DM20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DN20" t="inlineStr"/>
+      <c r="DO20" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="DP20" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="DQ20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="DR20" t="inlineStr"/>
+      <c r="DS20" t="inlineStr"/>
+      <c r="DT20" t="inlineStr"/>
+      <c r="DU20" t="inlineStr"/>
+      <c r="DV20" t="inlineStr"/>
+      <c r="DW20" t="inlineStr"/>
+      <c r="DX20" t="inlineStr"/>
+      <c r="DY20" t="inlineStr"/>
+      <c r="DZ20" t="inlineStr"/>
+      <c r="EA20" t="inlineStr"/>
+      <c r="EB20" t="inlineStr"/>
+      <c r="EC20" t="inlineStr"/>
+      <c r="ED20" t="inlineStr"/>
+      <c r="EE20" t="inlineStr"/>
+      <c r="EF20" t="inlineStr"/>
+      <c r="EG20" t="inlineStr"/>
+      <c r="EH20" t="inlineStr"/>
+      <c r="EI20" t="inlineStr"/>
+      <c r="EJ20" t="inlineStr"/>
+      <c r="EK20" t="inlineStr"/>
+      <c r="EL20" t="inlineStr"/>
+      <c r="EM20" t="inlineStr"/>
+      <c r="EN20" t="inlineStr"/>
+      <c r="EO20" t="inlineStr"/>
+      <c r="EP20" t="inlineStr"/>
+      <c r="EQ20" t="inlineStr"/>
+      <c r="ER20" t="inlineStr"/>
+      <c r="ES20" t="inlineStr"/>
+      <c r="ET20" t="inlineStr"/>
+      <c r="EU20" t="inlineStr"/>
+      <c r="EV20" t="inlineStr"/>
+      <c r="EW20" t="inlineStr"/>
+      <c r="EX20" t="inlineStr"/>
+      <c r="EY20" t="inlineStr"/>
+      <c r="EZ20" t="inlineStr"/>
+      <c r="FA20" t="inlineStr"/>
+      <c r="FB20" t="inlineStr"/>
+      <c r="FC20" t="inlineStr"/>
+      <c r="FD20" t="inlineStr"/>
+      <c r="FE20" t="inlineStr"/>
+      <c r="FF20" t="inlineStr"/>
+      <c r="FG20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/notion_data/CHAM_CONG_SOC_TRANG.xlsx
+++ b/notion_data/CHAM_CONG_SOC_TRANG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FG20"/>
+  <dimension ref="A1:FS20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1191,60 +1191,120 @@
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
+          <t>properties.Ngày 16.select.id</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 16.select.name</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 16.select.color</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 15.select.id</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 15.select.name</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 15.select.color</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
           <t>properties.Ngày 13.select.id</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 13.select.name</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 13.select.color</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 18.select.id</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 18.select.name</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 18.select.color</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 17.select.id</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 17.select.name</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 17.select.color</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 8.select.id</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 8.select.name</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 8.select.color</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 4.select.id</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 4.select.name</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 4.select.color</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 14.select.id</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 14.select.name</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 14.select.color</t>
         </is>
@@ -1756,6 +1816,18 @@
       <c r="FE2" t="inlineStr"/>
       <c r="FF2" t="inlineStr"/>
       <c r="FG2" t="inlineStr"/>
+      <c r="FH2" t="inlineStr"/>
+      <c r="FI2" t="inlineStr"/>
+      <c r="FJ2" t="inlineStr"/>
+      <c r="FK2" t="inlineStr"/>
+      <c r="FL2" t="inlineStr"/>
+      <c r="FM2" t="inlineStr"/>
+      <c r="FN2" t="inlineStr"/>
+      <c r="FO2" t="inlineStr"/>
+      <c r="FP2" t="inlineStr"/>
+      <c r="FQ2" t="inlineStr"/>
+      <c r="FR2" t="inlineStr"/>
+      <c r="FS2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2263,6 +2335,18 @@
       <c r="FE3" t="inlineStr"/>
       <c r="FF3" t="inlineStr"/>
       <c r="FG3" t="inlineStr"/>
+      <c r="FH3" t="inlineStr"/>
+      <c r="FI3" t="inlineStr"/>
+      <c r="FJ3" t="inlineStr"/>
+      <c r="FK3" t="inlineStr"/>
+      <c r="FL3" t="inlineStr"/>
+      <c r="FM3" t="inlineStr"/>
+      <c r="FN3" t="inlineStr"/>
+      <c r="FO3" t="inlineStr"/>
+      <c r="FP3" t="inlineStr"/>
+      <c r="FQ3" t="inlineStr"/>
+      <c r="FR3" t="inlineStr"/>
+      <c r="FS3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2770,6 +2854,18 @@
       <c r="FE4" t="inlineStr"/>
       <c r="FF4" t="inlineStr"/>
       <c r="FG4" t="inlineStr"/>
+      <c r="FH4" t="inlineStr"/>
+      <c r="FI4" t="inlineStr"/>
+      <c r="FJ4" t="inlineStr"/>
+      <c r="FK4" t="inlineStr"/>
+      <c r="FL4" t="inlineStr"/>
+      <c r="FM4" t="inlineStr"/>
+      <c r="FN4" t="inlineStr"/>
+      <c r="FO4" t="inlineStr"/>
+      <c r="FP4" t="inlineStr"/>
+      <c r="FQ4" t="inlineStr"/>
+      <c r="FR4" t="inlineStr"/>
+      <c r="FS4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2789,7 +2885,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-14T13:14:00.000Z</t>
+          <t>2024-07-19T11:41:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -3441,6 +3537,66 @@
         </is>
       </c>
       <c r="FG5" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FH5" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FI5" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FJ5" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FK5" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FL5" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FM5" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FN5" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FO5" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FP5" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FQ5" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FR5" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FS5" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
@@ -3952,6 +4108,18 @@
       <c r="FE6" t="inlineStr"/>
       <c r="FF6" t="inlineStr"/>
       <c r="FG6" t="inlineStr"/>
+      <c r="FH6" t="inlineStr"/>
+      <c r="FI6" t="inlineStr"/>
+      <c r="FJ6" t="inlineStr"/>
+      <c r="FK6" t="inlineStr"/>
+      <c r="FL6" t="inlineStr"/>
+      <c r="FM6" t="inlineStr"/>
+      <c r="FN6" t="inlineStr"/>
+      <c r="FO6" t="inlineStr"/>
+      <c r="FP6" t="inlineStr"/>
+      <c r="FQ6" t="inlineStr"/>
+      <c r="FR6" t="inlineStr"/>
+      <c r="FS6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4459,6 +4627,18 @@
       <c r="FE7" t="inlineStr"/>
       <c r="FF7" t="inlineStr"/>
       <c r="FG7" t="inlineStr"/>
+      <c r="FH7" t="inlineStr"/>
+      <c r="FI7" t="inlineStr"/>
+      <c r="FJ7" t="inlineStr"/>
+      <c r="FK7" t="inlineStr"/>
+      <c r="FL7" t="inlineStr"/>
+      <c r="FM7" t="inlineStr"/>
+      <c r="FN7" t="inlineStr"/>
+      <c r="FO7" t="inlineStr"/>
+      <c r="FP7" t="inlineStr"/>
+      <c r="FQ7" t="inlineStr"/>
+      <c r="FR7" t="inlineStr"/>
+      <c r="FS7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4966,6 +5146,18 @@
       <c r="FE8" t="inlineStr"/>
       <c r="FF8" t="inlineStr"/>
       <c r="FG8" t="inlineStr"/>
+      <c r="FH8" t="inlineStr"/>
+      <c r="FI8" t="inlineStr"/>
+      <c r="FJ8" t="inlineStr"/>
+      <c r="FK8" t="inlineStr"/>
+      <c r="FL8" t="inlineStr"/>
+      <c r="FM8" t="inlineStr"/>
+      <c r="FN8" t="inlineStr"/>
+      <c r="FO8" t="inlineStr"/>
+      <c r="FP8" t="inlineStr"/>
+      <c r="FQ8" t="inlineStr"/>
+      <c r="FR8" t="inlineStr"/>
+      <c r="FS8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4985,7 +5177,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-14T13:14:00.000Z</t>
+          <t>2024-07-19T11:41:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -5628,15 +5820,75 @@
       </c>
       <c r="FE9" t="inlineStr">
         <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FF9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FG9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FH9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FI9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FJ9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FK9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FL9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FM9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FN9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FO9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FP9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FQ9" t="inlineStr">
+        <is>
           <t>IzRg</t>
         </is>
       </c>
-      <c r="FF9" t="inlineStr">
+      <c r="FR9" t="inlineStr">
         <is>
           <t>Nửa ngày</t>
         </is>
       </c>
-      <c r="FG9" t="inlineStr">
+      <c r="FS9" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
@@ -6148,6 +6400,18 @@
       <c r="FE10" t="inlineStr"/>
       <c r="FF10" t="inlineStr"/>
       <c r="FG10" t="inlineStr"/>
+      <c r="FH10" t="inlineStr"/>
+      <c r="FI10" t="inlineStr"/>
+      <c r="FJ10" t="inlineStr"/>
+      <c r="FK10" t="inlineStr"/>
+      <c r="FL10" t="inlineStr"/>
+      <c r="FM10" t="inlineStr"/>
+      <c r="FN10" t="inlineStr"/>
+      <c r="FO10" t="inlineStr"/>
+      <c r="FP10" t="inlineStr"/>
+      <c r="FQ10" t="inlineStr"/>
+      <c r="FR10" t="inlineStr"/>
+      <c r="FS10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6167,7 +6431,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-14T13:14:00.000Z</t>
+          <t>2024-07-19T11:41:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -6819,6 +7083,66 @@
         </is>
       </c>
       <c r="FG11" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FH11" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FI11" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FJ11" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FK11" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FL11" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FM11" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FN11" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FO11" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FP11" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FQ11" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FR11" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FS11" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
@@ -7330,6 +7654,18 @@
       <c r="FE12" t="inlineStr"/>
       <c r="FF12" t="inlineStr"/>
       <c r="FG12" t="inlineStr"/>
+      <c r="FH12" t="inlineStr"/>
+      <c r="FI12" t="inlineStr"/>
+      <c r="FJ12" t="inlineStr"/>
+      <c r="FK12" t="inlineStr"/>
+      <c r="FL12" t="inlineStr"/>
+      <c r="FM12" t="inlineStr"/>
+      <c r="FN12" t="inlineStr"/>
+      <c r="FO12" t="inlineStr"/>
+      <c r="FP12" t="inlineStr"/>
+      <c r="FQ12" t="inlineStr"/>
+      <c r="FR12" t="inlineStr"/>
+      <c r="FS12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7846,17 +8182,29 @@
       <c r="FB13" t="inlineStr"/>
       <c r="FC13" t="inlineStr"/>
       <c r="FD13" t="inlineStr"/>
-      <c r="FE13" t="inlineStr">
+      <c r="FE13" t="inlineStr"/>
+      <c r="FF13" t="inlineStr"/>
+      <c r="FG13" t="inlineStr"/>
+      <c r="FH13" t="inlineStr"/>
+      <c r="FI13" t="inlineStr"/>
+      <c r="FJ13" t="inlineStr"/>
+      <c r="FK13" t="inlineStr"/>
+      <c r="FL13" t="inlineStr"/>
+      <c r="FM13" t="inlineStr"/>
+      <c r="FN13" t="inlineStr"/>
+      <c r="FO13" t="inlineStr"/>
+      <c r="FP13" t="inlineStr"/>
+      <c r="FQ13" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FF13" t="inlineStr">
+      <c r="FR13" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FG13" t="inlineStr">
+      <c r="FS13" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
@@ -8368,6 +8716,18 @@
       <c r="FE14" t="inlineStr"/>
       <c r="FF14" t="inlineStr"/>
       <c r="FG14" t="inlineStr"/>
+      <c r="FH14" t="inlineStr"/>
+      <c r="FI14" t="inlineStr"/>
+      <c r="FJ14" t="inlineStr"/>
+      <c r="FK14" t="inlineStr"/>
+      <c r="FL14" t="inlineStr"/>
+      <c r="FM14" t="inlineStr"/>
+      <c r="FN14" t="inlineStr"/>
+      <c r="FO14" t="inlineStr"/>
+      <c r="FP14" t="inlineStr"/>
+      <c r="FQ14" t="inlineStr"/>
+      <c r="FR14" t="inlineStr"/>
+      <c r="FS14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8875,6 +9235,18 @@
       <c r="FE15" t="inlineStr"/>
       <c r="FF15" t="inlineStr"/>
       <c r="FG15" t="inlineStr"/>
+      <c r="FH15" t="inlineStr"/>
+      <c r="FI15" t="inlineStr"/>
+      <c r="FJ15" t="inlineStr"/>
+      <c r="FK15" t="inlineStr"/>
+      <c r="FL15" t="inlineStr"/>
+      <c r="FM15" t="inlineStr"/>
+      <c r="FN15" t="inlineStr"/>
+      <c r="FO15" t="inlineStr"/>
+      <c r="FP15" t="inlineStr"/>
+      <c r="FQ15" t="inlineStr"/>
+      <c r="FR15" t="inlineStr"/>
+      <c r="FS15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9382,6 +9754,18 @@
       <c r="FE16" t="inlineStr"/>
       <c r="FF16" t="inlineStr"/>
       <c r="FG16" t="inlineStr"/>
+      <c r="FH16" t="inlineStr"/>
+      <c r="FI16" t="inlineStr"/>
+      <c r="FJ16" t="inlineStr"/>
+      <c r="FK16" t="inlineStr"/>
+      <c r="FL16" t="inlineStr"/>
+      <c r="FM16" t="inlineStr"/>
+      <c r="FN16" t="inlineStr"/>
+      <c r="FO16" t="inlineStr"/>
+      <c r="FP16" t="inlineStr"/>
+      <c r="FQ16" t="inlineStr"/>
+      <c r="FR16" t="inlineStr"/>
+      <c r="FS16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -9401,7 +9785,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-14T13:14:00.000Z</t>
+          <t>2024-07-19T11:41:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -9979,9 +10363,21 @@
           <t>pink</t>
         </is>
       </c>
-      <c r="FB17" t="inlineStr"/>
-      <c r="FC17" t="inlineStr"/>
-      <c r="FD17" t="inlineStr"/>
+      <c r="FB17" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FC17" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FD17" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
       <c r="FE17" t="inlineStr">
         <is>
           <t>DjwF</t>
@@ -9993,6 +10389,54 @@
         </is>
       </c>
       <c r="FG17" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FH17" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FI17" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FJ17" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FK17" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FL17" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FM17" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FN17" t="inlineStr"/>
+      <c r="FO17" t="inlineStr"/>
+      <c r="FP17" t="inlineStr"/>
+      <c r="FQ17" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FR17" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FS17" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
@@ -10504,6 +10948,18 @@
       <c r="FE18" t="inlineStr"/>
       <c r="FF18" t="inlineStr"/>
       <c r="FG18" t="inlineStr"/>
+      <c r="FH18" t="inlineStr"/>
+      <c r="FI18" t="inlineStr"/>
+      <c r="FJ18" t="inlineStr"/>
+      <c r="FK18" t="inlineStr"/>
+      <c r="FL18" t="inlineStr"/>
+      <c r="FM18" t="inlineStr"/>
+      <c r="FN18" t="inlineStr"/>
+      <c r="FO18" t="inlineStr"/>
+      <c r="FP18" t="inlineStr"/>
+      <c r="FQ18" t="inlineStr"/>
+      <c r="FR18" t="inlineStr"/>
+      <c r="FS18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11011,6 +11467,18 @@
       <c r="FE19" t="inlineStr"/>
       <c r="FF19" t="inlineStr"/>
       <c r="FG19" t="inlineStr"/>
+      <c r="FH19" t="inlineStr"/>
+      <c r="FI19" t="inlineStr"/>
+      <c r="FJ19" t="inlineStr"/>
+      <c r="FK19" t="inlineStr"/>
+      <c r="FL19" t="inlineStr"/>
+      <c r="FM19" t="inlineStr"/>
+      <c r="FN19" t="inlineStr"/>
+      <c r="FO19" t="inlineStr"/>
+      <c r="FP19" t="inlineStr"/>
+      <c r="FQ19" t="inlineStr"/>
+      <c r="FR19" t="inlineStr"/>
+      <c r="FS19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -11518,6 +11986,18 @@
       <c r="FE20" t="inlineStr"/>
       <c r="FF20" t="inlineStr"/>
       <c r="FG20" t="inlineStr"/>
+      <c r="FH20" t="inlineStr"/>
+      <c r="FI20" t="inlineStr"/>
+      <c r="FJ20" t="inlineStr"/>
+      <c r="FK20" t="inlineStr"/>
+      <c r="FL20" t="inlineStr"/>
+      <c r="FM20" t="inlineStr"/>
+      <c r="FN20" t="inlineStr"/>
+      <c r="FO20" t="inlineStr"/>
+      <c r="FP20" t="inlineStr"/>
+      <c r="FQ20" t="inlineStr"/>
+      <c r="FR20" t="inlineStr"/>
+      <c r="FS20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
